--- a/rcads/data/xls/03p_ActivityPersonRoles.xlsx
+++ b/rcads/data/xls/03p_ActivityPersonRoles.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_03p_ActivityPersonRoles"/>
   </sheets>
   <definedNames>
-    <definedName name="_03p_ActivityPersonRoles">'_03p_ActivityPersonRoles'!$A$1:$D$122</definedName>
+    <definedName name="_03p_ActivityPersonRoles">'_03p_ActivityPersonRoles'!$A$1:$D$174</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2067,6 +2067,734 @@
         <v>2</v>
       </c>
     </row>
+    <row outlineLevel="0" r="123">
+      <c r="A123" s="0">
+        <v>129</v>
+      </c>
+      <c r="B123" s="0">
+        <v>65</v>
+      </c>
+      <c r="C123" s="0">
+        <v>79</v>
+      </c>
+      <c r="D123" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="124">
+      <c r="A124" s="0">
+        <v>130</v>
+      </c>
+      <c r="B124" s="0">
+        <v>66</v>
+      </c>
+      <c r="C124" s="0">
+        <v>79</v>
+      </c>
+      <c r="D124" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="125">
+      <c r="A125" s="0">
+        <v>131</v>
+      </c>
+      <c r="B125" s="0">
+        <v>67</v>
+      </c>
+      <c r="C125" s="0">
+        <v>80</v>
+      </c>
+      <c r="D125" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="126">
+      <c r="A126" s="0">
+        <v>132</v>
+      </c>
+      <c r="B126" s="0">
+        <v>68</v>
+      </c>
+      <c r="C126" s="0">
+        <v>81</v>
+      </c>
+      <c r="D126" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="127">
+      <c r="A127" s="0">
+        <v>133</v>
+      </c>
+      <c r="B127" s="0">
+        <v>68</v>
+      </c>
+      <c r="C127" s="0">
+        <v>81</v>
+      </c>
+      <c r="D127" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="128">
+      <c r="A128" s="0">
+        <v>134</v>
+      </c>
+      <c r="B128" s="0">
+        <v>68</v>
+      </c>
+      <c r="C128" s="0">
+        <v>82</v>
+      </c>
+      <c r="D128" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="129">
+      <c r="A129" s="0">
+        <v>135</v>
+      </c>
+      <c r="B129" s="0">
+        <v>68</v>
+      </c>
+      <c r="C129" s="0">
+        <v>83</v>
+      </c>
+      <c r="D129" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="130">
+      <c r="A130" s="0">
+        <v>136</v>
+      </c>
+      <c r="B130" s="0">
+        <v>70</v>
+      </c>
+      <c r="C130" s="0">
+        <v>84</v>
+      </c>
+      <c r="D130" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="131">
+      <c r="A131" s="0">
+        <v>137</v>
+      </c>
+      <c r="B131" s="0">
+        <v>70</v>
+      </c>
+      <c r="C131" s="0">
+        <v>84</v>
+      </c>
+      <c r="D131" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="132">
+      <c r="A132" s="0">
+        <v>138</v>
+      </c>
+      <c r="B132" s="0">
+        <v>70</v>
+      </c>
+      <c r="C132" s="0">
+        <v>85</v>
+      </c>
+      <c r="D132" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="133">
+      <c r="A133" s="0">
+        <v>139</v>
+      </c>
+      <c r="B133" s="0">
+        <v>70</v>
+      </c>
+      <c r="C133" s="0">
+        <v>85</v>
+      </c>
+      <c r="D133" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="134">
+      <c r="A134" s="0">
+        <v>140</v>
+      </c>
+      <c r="B134" s="0">
+        <v>70</v>
+      </c>
+      <c r="C134" s="0">
+        <v>86</v>
+      </c>
+      <c r="D134" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="135">
+      <c r="A135" s="0">
+        <v>141</v>
+      </c>
+      <c r="B135" s="0">
+        <v>69</v>
+      </c>
+      <c r="C135" s="0">
+        <v>84</v>
+      </c>
+      <c r="D135" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="136">
+      <c r="A136" s="0">
+        <v>142</v>
+      </c>
+      <c r="B136" s="0">
+        <v>69</v>
+      </c>
+      <c r="C136" s="0">
+        <v>84</v>
+      </c>
+      <c r="D136" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="137">
+      <c r="A137" s="0">
+        <v>143</v>
+      </c>
+      <c r="B137" s="0">
+        <v>69</v>
+      </c>
+      <c r="C137" s="0">
+        <v>85</v>
+      </c>
+      <c r="D137" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="138">
+      <c r="A138" s="0">
+        <v>144</v>
+      </c>
+      <c r="B138" s="0">
+        <v>69</v>
+      </c>
+      <c r="C138" s="0">
+        <v>85</v>
+      </c>
+      <c r="D138" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="139">
+      <c r="A139" s="0">
+        <v>145</v>
+      </c>
+      <c r="B139" s="0">
+        <v>69</v>
+      </c>
+      <c r="C139" s="0">
+        <v>86</v>
+      </c>
+      <c r="D139" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="140">
+      <c r="A140" s="0">
+        <v>146</v>
+      </c>
+      <c r="B140" s="0">
+        <v>68</v>
+      </c>
+      <c r="C140" s="0">
+        <v>87</v>
+      </c>
+      <c r="D140" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="141">
+      <c r="A141" s="0">
+        <v>147</v>
+      </c>
+      <c r="B141" s="0">
+        <v>68</v>
+      </c>
+      <c r="C141" s="0">
+        <v>88</v>
+      </c>
+      <c r="D141" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="142">
+      <c r="A142" s="0">
+        <v>148</v>
+      </c>
+      <c r="B142" s="0">
+        <v>72</v>
+      </c>
+      <c r="C142" s="0">
+        <v>89</v>
+      </c>
+      <c r="D142" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="143">
+      <c r="A143" s="0">
+        <v>149</v>
+      </c>
+      <c r="B143" s="0">
+        <v>72</v>
+      </c>
+      <c r="C143" s="0">
+        <v>90</v>
+      </c>
+      <c r="D143" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="144">
+      <c r="A144" s="0">
+        <v>150</v>
+      </c>
+      <c r="B144" s="0">
+        <v>72</v>
+      </c>
+      <c r="C144" s="0">
+        <v>91</v>
+      </c>
+      <c r="D144" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="145">
+      <c r="A145" s="0">
+        <v>151</v>
+      </c>
+      <c r="B145" s="0">
+        <v>72</v>
+      </c>
+      <c r="C145" s="0">
+        <v>92</v>
+      </c>
+      <c r="D145" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="146">
+      <c r="A146" s="0">
+        <v>152</v>
+      </c>
+      <c r="B146" s="0">
+        <v>72</v>
+      </c>
+      <c r="C146" s="0">
+        <v>93</v>
+      </c>
+      <c r="D146" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="147">
+      <c r="A147" s="0">
+        <v>153</v>
+      </c>
+      <c r="B147" s="0">
+        <v>74</v>
+      </c>
+      <c r="C147" s="0">
+        <v>94</v>
+      </c>
+      <c r="D147" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="148">
+      <c r="A148" s="0">
+        <v>154</v>
+      </c>
+      <c r="B148" s="0">
+        <v>73</v>
+      </c>
+      <c r="C148" s="0">
+        <v>94</v>
+      </c>
+      <c r="D148" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="149">
+      <c r="A149" s="0">
+        <v>155</v>
+      </c>
+      <c r="B149" s="0">
+        <v>74</v>
+      </c>
+      <c r="C149" s="0">
+        <v>95</v>
+      </c>
+      <c r="D149" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="150">
+      <c r="A150" s="0">
+        <v>156</v>
+      </c>
+      <c r="B150" s="0">
+        <v>73</v>
+      </c>
+      <c r="C150" s="0">
+        <v>95</v>
+      </c>
+      <c r="D150" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="151">
+      <c r="A151" s="0">
+        <v>157</v>
+      </c>
+      <c r="B151" s="0">
+        <v>76</v>
+      </c>
+      <c r="C151" s="0">
+        <v>96</v>
+      </c>
+      <c r="D151" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="152">
+      <c r="A152" s="0">
+        <v>158</v>
+      </c>
+      <c r="B152" s="0">
+        <v>75</v>
+      </c>
+      <c r="C152" s="0">
+        <v>96</v>
+      </c>
+      <c r="D152" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="153">
+      <c r="A153" s="0">
+        <v>159</v>
+      </c>
+      <c r="B153" s="0">
+        <v>77</v>
+      </c>
+      <c r="C153" s="0">
+        <v>94</v>
+      </c>
+      <c r="D153" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="154">
+      <c r="A154" s="0">
+        <v>160</v>
+      </c>
+      <c r="B154" s="0">
+        <v>78</v>
+      </c>
+      <c r="C154" s="0">
+        <v>94</v>
+      </c>
+      <c r="D154" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="155">
+      <c r="A155" s="0">
+        <v>161</v>
+      </c>
+      <c r="B155" s="0">
+        <v>77</v>
+      </c>
+      <c r="C155" s="0">
+        <v>95</v>
+      </c>
+      <c r="D155" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="156">
+      <c r="A156" s="0">
+        <v>162</v>
+      </c>
+      <c r="B156" s="0">
+        <v>78</v>
+      </c>
+      <c r="C156" s="0">
+        <v>95</v>
+      </c>
+      <c r="D156" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="157">
+      <c r="A157" s="0">
+        <v>163</v>
+      </c>
+      <c r="B157" s="0">
+        <v>80</v>
+      </c>
+      <c r="C157" s="0">
+        <v>96</v>
+      </c>
+      <c r="D157" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="158">
+      <c r="A158" s="0">
+        <v>164</v>
+      </c>
+      <c r="B158" s="0">
+        <v>79</v>
+      </c>
+      <c r="C158" s="0">
+        <v>96</v>
+      </c>
+      <c r="D158" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="159">
+      <c r="A159" s="0">
+        <v>165</v>
+      </c>
+      <c r="B159" s="0">
+        <v>81</v>
+      </c>
+      <c r="C159" s="0">
+        <v>15</v>
+      </c>
+      <c r="D159" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="160">
+      <c r="A160" s="0">
+        <v>166</v>
+      </c>
+      <c r="B160" s="0">
+        <v>82</v>
+      </c>
+      <c r="C160" s="0">
+        <v>15</v>
+      </c>
+      <c r="D160" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="161">
+      <c r="A161" s="0">
+        <v>183</v>
+      </c>
+      <c r="B161" s="0">
+        <v>85</v>
+      </c>
+      <c r="C161" s="0">
+        <v>97</v>
+      </c>
+      <c r="D161" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="162">
+      <c r="A162" s="0">
+        <v>184</v>
+      </c>
+      <c r="B162" s="0">
+        <v>86</v>
+      </c>
+      <c r="C162" s="0">
+        <v>97</v>
+      </c>
+      <c r="D162" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="163">
+      <c r="A163" s="0">
+        <v>185</v>
+      </c>
+      <c r="B163" s="0">
+        <v>94</v>
+      </c>
+      <c r="C163" s="0">
+        <v>97</v>
+      </c>
+      <c r="D163" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="164">
+      <c r="A164" s="0">
+        <v>186</v>
+      </c>
+      <c r="B164" s="0">
+        <v>95</v>
+      </c>
+      <c r="C164" s="0">
+        <v>97</v>
+      </c>
+      <c r="D164" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="165">
+      <c r="A165" s="0">
+        <v>187</v>
+      </c>
+      <c r="B165" s="0">
+        <v>96</v>
+      </c>
+      <c r="C165" s="0">
+        <v>96</v>
+      </c>
+      <c r="D165" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="166">
+      <c r="A166" s="0">
+        <v>188</v>
+      </c>
+      <c r="B166" s="0">
+        <v>97</v>
+      </c>
+      <c r="C166" s="0">
+        <v>96</v>
+      </c>
+      <c r="D166" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="167">
+      <c r="A167" s="0">
+        <v>189</v>
+      </c>
+      <c r="B167" s="0">
+        <v>98</v>
+      </c>
+      <c r="C167" s="0">
+        <v>98</v>
+      </c>
+      <c r="D167" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="168">
+      <c r="A168" s="0">
+        <v>190</v>
+      </c>
+      <c r="B168" s="0">
+        <v>99</v>
+      </c>
+      <c r="C168" s="0">
+        <v>98</v>
+      </c>
+      <c r="D168" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="169">
+      <c r="A169" s="0">
+        <v>191</v>
+      </c>
+      <c r="B169" s="0">
+        <v>100</v>
+      </c>
+      <c r="C169" s="0">
+        <v>96</v>
+      </c>
+      <c r="D169" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="170">
+      <c r="A170" s="0">
+        <v>192</v>
+      </c>
+      <c r="B170" s="0">
+        <v>101</v>
+      </c>
+      <c r="C170" s="0">
+        <v>96</v>
+      </c>
+      <c r="D170" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="171">
+      <c r="A171" s="0">
+        <v>193</v>
+      </c>
+      <c r="B171" s="0">
+        <v>100</v>
+      </c>
+      <c r="C171" s="0">
+        <v>99</v>
+      </c>
+      <c r="D171" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="172">
+      <c r="A172" s="0">
+        <v>194</v>
+      </c>
+      <c r="B172" s="0">
+        <v>100</v>
+      </c>
+      <c r="C172" s="0">
+        <v>99</v>
+      </c>
+      <c r="D172" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="173">
+      <c r="A173" s="0">
+        <v>195</v>
+      </c>
+      <c r="B173" s="0">
+        <v>101</v>
+      </c>
+      <c r="C173" s="0">
+        <v>100</v>
+      </c>
+      <c r="D173" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="174">
+      <c r="A174" s="0">
+        <v>196</v>
+      </c>
+      <c r="B174" s="0">
+        <v>100</v>
+      </c>
+      <c r="C174" s="0">
+        <v>100</v>
+      </c>
+      <c r="D174" s="0">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rcads/data/xls/03p_ActivityPersonRoles.xlsx
+++ b/rcads/data/xls/03p_ActivityPersonRoles.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_03p_ActivityPersonRoles"/>
   </sheets>
   <definedNames>
-    <definedName name="_03p_ActivityPersonRoles">'_03p_ActivityPersonRoles'!$A$1:$D$174</definedName>
+    <definedName name="_03p_ActivityPersonRoles">'_03p_ActivityPersonRoles'!$A$1:$D$177</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D174"/>
+  <dimension ref="A1:D177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2795,6 +2795,48 @@
         <v>3</v>
       </c>
     </row>
+    <row outlineLevel="0" r="175">
+      <c r="A175" s="0">
+        <v>197</v>
+      </c>
+      <c r="B175" s="0">
+        <v>105</v>
+      </c>
+      <c r="C175" s="0">
+        <v>102</v>
+      </c>
+      <c r="D175" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="176">
+      <c r="A176" s="0">
+        <v>198</v>
+      </c>
+      <c r="B176" s="0">
+        <v>104</v>
+      </c>
+      <c r="C176" s="0">
+        <v>101</v>
+      </c>
+      <c r="D176" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="177">
+      <c r="A177" s="0">
+        <v>199</v>
+      </c>
+      <c r="B177" s="0">
+        <v>107</v>
+      </c>
+      <c r="C177" s="0">
+        <v>103</v>
+      </c>
+      <c r="D177" s="0">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rcads/data/xls/03p_ActivityPersonRoles.xlsx
+++ b/rcads/data/xls/03p_ActivityPersonRoles.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_03p_ActivityPersonRoles"/>
   </sheets>
   <definedNames>
-    <definedName name="_03p_ActivityPersonRoles">'_03p_ActivityPersonRoles'!$A$1:$D$177</definedName>
+    <definedName name="_03p_ActivityPersonRoles">'_03p_ActivityPersonRoles'!$A$1:$D$183</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D177"/>
+  <dimension ref="A1:D183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2837,6 +2837,90 @@
         <v>1</v>
       </c>
     </row>
+    <row outlineLevel="0" r="178">
+      <c r="A178" s="0">
+        <v>200</v>
+      </c>
+      <c r="B178" s="0">
+        <v>114</v>
+      </c>
+      <c r="C178" s="0">
+        <v>105</v>
+      </c>
+      <c r="D178" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="179">
+      <c r="A179" s="0">
+        <v>201</v>
+      </c>
+      <c r="B179" s="0">
+        <v>114</v>
+      </c>
+      <c r="C179" s="0">
+        <v>106</v>
+      </c>
+      <c r="D179" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="180">
+      <c r="A180" s="0">
+        <v>202</v>
+      </c>
+      <c r="B180" s="0">
+        <v>114</v>
+      </c>
+      <c r="C180" s="0">
+        <v>107</v>
+      </c>
+      <c r="D180" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="181">
+      <c r="A181" s="0">
+        <v>203</v>
+      </c>
+      <c r="B181" s="0">
+        <v>115</v>
+      </c>
+      <c r="C181" s="0">
+        <v>105</v>
+      </c>
+      <c r="D181" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="182">
+      <c r="A182" s="0">
+        <v>204</v>
+      </c>
+      <c r="B182" s="0">
+        <v>115</v>
+      </c>
+      <c r="C182" s="0">
+        <v>106</v>
+      </c>
+      <c r="D182" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="183">
+      <c r="A183" s="0">
+        <v>205</v>
+      </c>
+      <c r="B183" s="0">
+        <v>115</v>
+      </c>
+      <c r="C183" s="0">
+        <v>107</v>
+      </c>
+      <c r="D183" s="0">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rcads/data/xls/03p_ActivityPersonRoles.xlsx
+++ b/rcads/data/xls/03p_ActivityPersonRoles.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_03p_ActivityPersonRoles"/>
   </sheets>
   <definedNames>
-    <definedName name="_03p_ActivityPersonRoles">'_03p_ActivityPersonRoles'!$A$1:$D$183</definedName>
+    <definedName name="_03p_ActivityPersonRoles">'_03p_ActivityPersonRoles'!$A$1:$D$200</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D183"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -2921,6 +2921,244 @@
         <v>4</v>
       </c>
     </row>
+    <row outlineLevel="0" r="184">
+      <c r="A184" s="0">
+        <v>206</v>
+      </c>
+      <c r="B184" s="0">
+        <v>116</v>
+      </c>
+      <c r="C184" s="0">
+        <v>108</v>
+      </c>
+      <c r="D184" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="185">
+      <c r="A185" s="0">
+        <v>207</v>
+      </c>
+      <c r="B185" s="0">
+        <v>117</v>
+      </c>
+      <c r="C185" s="0">
+        <v>109</v>
+      </c>
+      <c r="D185" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="186">
+      <c r="A186" s="0">
+        <v>208</v>
+      </c>
+      <c r="B186" s="0">
+        <v>117</v>
+      </c>
+      <c r="C186" s="0">
+        <v>109</v>
+      </c>
+      <c r="D186" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="187">
+      <c r="A187" s="0">
+        <v>209</v>
+      </c>
+      <c r="B187" s="0">
+        <v>117</v>
+      </c>
+      <c r="C187" s="0">
+        <v>110</v>
+      </c>
+      <c r="D187" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="188">
+      <c r="A188" s="0">
+        <v>210</v>
+      </c>
+      <c r="B188" s="0">
+        <v>117</v>
+      </c>
+      <c r="C188" s="0">
+        <v>110</v>
+      </c>
+      <c r="D188" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="189">
+      <c r="A189" s="0">
+        <v>211</v>
+      </c>
+      <c r="B189" s="0">
+        <v>117</v>
+      </c>
+      <c r="C189" s="0">
+        <v>111</v>
+      </c>
+      <c r="D189" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="190">
+      <c r="A190" s="0">
+        <v>212</v>
+      </c>
+      <c r="B190" s="0">
+        <v>117</v>
+      </c>
+      <c r="C190" s="0">
+        <v>111</v>
+      </c>
+      <c r="D190" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="191">
+      <c r="A191" s="0">
+        <v>213</v>
+      </c>
+      <c r="B191" s="0">
+        <v>117</v>
+      </c>
+      <c r="C191" s="0">
+        <v>112</v>
+      </c>
+      <c r="D191" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="192">
+      <c r="A192" s="0">
+        <v>214</v>
+      </c>
+      <c r="B192" s="0">
+        <v>117</v>
+      </c>
+      <c r="C192" s="0">
+        <v>112</v>
+      </c>
+      <c r="D192" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="193">
+      <c r="A193" s="0">
+        <v>215</v>
+      </c>
+      <c r="B193" s="0">
+        <v>118</v>
+      </c>
+      <c r="C193" s="0">
+        <v>109</v>
+      </c>
+      <c r="D193" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="194">
+      <c r="A194" s="0">
+        <v>216</v>
+      </c>
+      <c r="B194" s="0">
+        <v>118</v>
+      </c>
+      <c r="C194" s="0">
+        <v>109</v>
+      </c>
+      <c r="D194" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="195">
+      <c r="A195" s="0">
+        <v>217</v>
+      </c>
+      <c r="B195" s="0">
+        <v>118</v>
+      </c>
+      <c r="C195" s="0">
+        <v>110</v>
+      </c>
+      <c r="D195" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="196">
+      <c r="A196" s="0">
+        <v>218</v>
+      </c>
+      <c r="B196" s="0">
+        <v>118</v>
+      </c>
+      <c r="C196" s="0">
+        <v>110</v>
+      </c>
+      <c r="D196" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="197">
+      <c r="A197" s="0">
+        <v>219</v>
+      </c>
+      <c r="B197" s="0">
+        <v>118</v>
+      </c>
+      <c r="C197" s="0">
+        <v>111</v>
+      </c>
+      <c r="D197" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="198">
+      <c r="A198" s="0">
+        <v>220</v>
+      </c>
+      <c r="B198" s="0">
+        <v>118</v>
+      </c>
+      <c r="C198" s="0">
+        <v>111</v>
+      </c>
+      <c r="D198" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="199">
+      <c r="A199" s="0">
+        <v>221</v>
+      </c>
+      <c r="B199" s="0">
+        <v>118</v>
+      </c>
+      <c r="C199" s="0">
+        <v>112</v>
+      </c>
+      <c r="D199" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="200">
+      <c r="A200" s="0">
+        <v>222</v>
+      </c>
+      <c r="B200" s="0">
+        <v>118</v>
+      </c>
+      <c r="C200" s="0">
+        <v>112</v>
+      </c>
+      <c r="D200" s="0">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
